--- a/src/test/resources/PresentationFiller.xlsx
+++ b/src/test/resources/PresentationFiller.xlsx
@@ -3226,44 +3226,6 @@
     <row r="1053" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="134">
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="C2:C7"/>
-    <mergeCell ref="D2:D7"/>
-    <mergeCell ref="E2:E7"/>
-    <mergeCell ref="F2:F7"/>
-    <mergeCell ref="G2:G7"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="B8:B13"/>
-    <mergeCell ref="C8:C13"/>
-    <mergeCell ref="D8:D13"/>
-    <mergeCell ref="E8:E13"/>
-    <mergeCell ref="F8:F13"/>
-    <mergeCell ref="G8:G13"/>
-    <mergeCell ref="D14:D19"/>
-    <mergeCell ref="E14:E19"/>
-    <mergeCell ref="F14:F19"/>
-    <mergeCell ref="G14:G19"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="D29:D33"/>
-    <mergeCell ref="E29:E33"/>
-    <mergeCell ref="F29:F33"/>
-    <mergeCell ref="G29:G33"/>
-    <mergeCell ref="A29:A33"/>
-    <mergeCell ref="A34:A38"/>
-    <mergeCell ref="B34:B38"/>
-    <mergeCell ref="C34:C38"/>
-    <mergeCell ref="D34:D38"/>
-    <mergeCell ref="E34:E38"/>
-    <mergeCell ref="F34:F38"/>
-    <mergeCell ref="G34:G38"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="A20:A24"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="F25:F28"/>
-    <mergeCell ref="E25:E28"/>
     <mergeCell ref="C20:C24"/>
     <mergeCell ref="D20:D24"/>
     <mergeCell ref="E20:E24"/>
@@ -3272,16 +3234,18 @@
     <mergeCell ref="G25:G28"/>
     <mergeCell ref="D25:D28"/>
     <mergeCell ref="C25:C28"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="D14:D19"/>
+    <mergeCell ref="E14:E19"/>
+    <mergeCell ref="F14:F19"/>
+    <mergeCell ref="G14:G19"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="D29:D33"/>
+    <mergeCell ref="G29:G33"/>
+    <mergeCell ref="C14:C19"/>
     <mergeCell ref="D54:D55"/>
     <mergeCell ref="E54:E55"/>
     <mergeCell ref="F54:F55"/>
     <mergeCell ref="G54:G55"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C56:C57"/>
     <mergeCell ref="D56:D57"/>
     <mergeCell ref="E56:E57"/>
     <mergeCell ref="F56:F57"/>
@@ -3289,77 +3253,113 @@
     <mergeCell ref="G58:G59"/>
     <mergeCell ref="F58:F59"/>
     <mergeCell ref="E58:E59"/>
-    <mergeCell ref="D58:D59"/>
     <mergeCell ref="C58:C59"/>
     <mergeCell ref="B58:B59"/>
     <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="D58:D59"/>
     <mergeCell ref="D60:D61"/>
     <mergeCell ref="E60:E61"/>
     <mergeCell ref="F60:F61"/>
     <mergeCell ref="G60:G61"/>
     <mergeCell ref="G62:G63"/>
     <mergeCell ref="F62:F63"/>
+    <mergeCell ref="F71:F73"/>
+    <mergeCell ref="G71:G73"/>
+    <mergeCell ref="F68:F70"/>
+    <mergeCell ref="G68:G70"/>
+    <mergeCell ref="D64:D67"/>
+    <mergeCell ref="E64:E67"/>
+    <mergeCell ref="F64:F67"/>
+    <mergeCell ref="G64:G67"/>
+    <mergeCell ref="D71:D73"/>
+    <mergeCell ref="E71:E73"/>
+    <mergeCell ref="E68:E70"/>
+    <mergeCell ref="D68:D70"/>
+    <mergeCell ref="E29:E33"/>
+    <mergeCell ref="F29:F33"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="C34:C38"/>
+    <mergeCell ref="D34:D38"/>
+    <mergeCell ref="E34:E38"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="A20:A24"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="C39:C43"/>
+    <mergeCell ref="C44:C47"/>
+    <mergeCell ref="B64:B67"/>
+    <mergeCell ref="C64:C67"/>
+    <mergeCell ref="C68:C70"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="A71:A73"/>
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="C71:C73"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="A64:A67"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="B44:B47"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A48:A51"/>
+    <mergeCell ref="D39:D43"/>
+    <mergeCell ref="E39:E43"/>
+    <mergeCell ref="F39:F43"/>
+    <mergeCell ref="G39:G43"/>
+    <mergeCell ref="F34:F38"/>
+    <mergeCell ref="G34:G38"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="D44:D47"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="C2:C7"/>
+    <mergeCell ref="D2:D7"/>
+    <mergeCell ref="E2:E7"/>
+    <mergeCell ref="F2:F7"/>
+    <mergeCell ref="G2:G7"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="F25:F28"/>
+    <mergeCell ref="E25:E28"/>
     <mergeCell ref="E62:E63"/>
     <mergeCell ref="D62:D63"/>
     <mergeCell ref="C62:C63"/>
     <mergeCell ref="B62:B63"/>
     <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A64:A67"/>
-    <mergeCell ref="B64:B67"/>
-    <mergeCell ref="C64:C67"/>
-    <mergeCell ref="D64:D67"/>
-    <mergeCell ref="E64:E67"/>
-    <mergeCell ref="F64:F67"/>
-    <mergeCell ref="G64:G67"/>
     <mergeCell ref="A8:A13"/>
     <mergeCell ref="A14:A19"/>
     <mergeCell ref="B14:B19"/>
-    <mergeCell ref="C14:C19"/>
-    <mergeCell ref="A39:A43"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="C39:C43"/>
-    <mergeCell ref="D39:D43"/>
-    <mergeCell ref="E39:E43"/>
-    <mergeCell ref="F39:F43"/>
-    <mergeCell ref="G39:G43"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="F68:F70"/>
-    <mergeCell ref="G68:G70"/>
-    <mergeCell ref="E68:E70"/>
-    <mergeCell ref="D68:D70"/>
-    <mergeCell ref="C68:C70"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="A68:A70"/>
-    <mergeCell ref="A44:A47"/>
-    <mergeCell ref="B44:B47"/>
-    <mergeCell ref="C44:C47"/>
-    <mergeCell ref="D44:D47"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="C8:C13"/>
+    <mergeCell ref="D8:D13"/>
+    <mergeCell ref="E8:E13"/>
+    <mergeCell ref="F8:F13"/>
+    <mergeCell ref="G8:G13"/>
     <mergeCell ref="E44:E47"/>
     <mergeCell ref="F44:F47"/>
-    <mergeCell ref="G44:G47"/>
-    <mergeCell ref="A48:A51"/>
     <mergeCell ref="B48:B51"/>
     <mergeCell ref="C48:C51"/>
     <mergeCell ref="D48:D51"/>
     <mergeCell ref="E48:E51"/>
     <mergeCell ref="F48:F51"/>
+    <mergeCell ref="G44:G47"/>
     <mergeCell ref="G48:G51"/>
-    <mergeCell ref="F71:F73"/>
-    <mergeCell ref="A71:A73"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="C71:C73"/>
-    <mergeCell ref="D71:D73"/>
-    <mergeCell ref="E71:E73"/>
-    <mergeCell ref="G71:G73"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="D2"/>
